--- a/img/plan_CC.xlsx
+++ b/img/plan_CC.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\husson\AOBox\Travail\huss\Divers\Site_Github\husson.github.io\img\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="11580" windowHeight="6540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Plan_CC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -133,11 +138,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -342,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -370,19 +375,19 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -416,10 +421,10 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -491,16 +496,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -509,13 +514,32 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -530,6 +554,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -566,10 +591,10 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>55</c:v>
@@ -584,10 +609,10 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -631,7 +656,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE1F-4719-8BC0-F51767E182DB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="61734912"/>
         <c:axId val="61736832"/>
       </c:scatterChart>
@@ -641,6 +680,7 @@
           <c:orientation val="minMax"/>
           <c:min val="40"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -659,8 +699,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -698,6 +741,7 @@
           <c:max val="240"/>
           <c:min val="160"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -716,8 +760,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -757,6 +804,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1178,14 +1226,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
@@ -1209,27 +1257,27 @@
     <col min="21" max="21" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C2" s="25"/>
       <c r="D2" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F3" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1258,7 +1306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1293,7 +1341,7 @@
       </c>
       <c r="K6" s="2">
         <f ca="1">30+F6-2*G6+1.5*H6+1.5*I6+2*J6+NORMINV(RAND(),0,3)</f>
-        <v>32.006040506102536</v>
+        <v>31.920390870873717</v>
       </c>
       <c r="O6" s="27" t="s">
         <v>10</v>
@@ -1301,12 +1349,12 @@
       <c r="P6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="77" t="s">
+      <c r="Q6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="77"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="R6" s="79"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1341,7 +1389,7 @@
       </c>
       <c r="K7" s="2">
         <f t="shared" ref="K7:K15" ca="1" si="3">30+F7-2*G7+1.5*H7+1.5*I7+2*J7+NORMINV(RAND(),0,3)</f>
-        <v>38.930286177486821</v>
+        <v>35.060525527561765</v>
       </c>
       <c r="O7" s="26"/>
       <c r="P7" s="28" t="s">
@@ -1354,12 +1402,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="23">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C8" s="24">
         <v>220</v>
@@ -1369,7 +1417,7 @@
       </c>
       <c r="F8" s="45">
         <f t="shared" ref="F8:F14" si="4">(B8-50)/5</f>
-        <v>-1.6</v>
+        <v>0.4</v>
       </c>
       <c r="G8" s="45">
         <f t="shared" ref="G8:G14" si="5">(C8-200)/20</f>
@@ -1377,11 +1425,11 @@
       </c>
       <c r="H8" s="45">
         <f t="shared" si="1"/>
-        <v>-1.6</v>
+        <v>0.4</v>
       </c>
       <c r="I8" s="47">
         <f t="shared" si="2"/>
-        <v>2.5600000000000005</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="J8" s="36">
         <f t="shared" si="0"/>
@@ -1389,33 +1437,33 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>29.643712540857813</v>
-      </c>
-      <c r="N8" s="78" t="s">
+        <v>29.785525607577391</v>
+      </c>
+      <c r="N8" s="77" t="s">
         <v>27</v>
       </c>
       <c r="O8" s="49">
         <f t="array" aca="1" ref="O8:O13" ca="1">MMULT(E33:N38,K6:K15)</f>
-        <v>31.082863473890878</v>
+        <v>30.055381042556363</v>
       </c>
       <c r="P8" s="50">
         <f ca="1">SQRT(P24*O$15)</f>
-        <v>2.6557020296295715</v>
+        <v>1.023760417860883</v>
       </c>
       <c r="Q8" s="51">
         <f>SQRT(P24)</f>
-        <v>0.70558226030821269</v>
+        <v>0.66230321864046848</v>
       </c>
       <c r="R8" s="27">
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="23">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C9" s="24">
         <v>180</v>
@@ -1425,7 +1473,7 @@
       </c>
       <c r="F9" s="45">
         <f t="shared" si="4"/>
-        <v>1.6</v>
+        <v>-1.2</v>
       </c>
       <c r="G9" s="45">
         <f t="shared" si="5"/>
@@ -1433,11 +1481,11 @@
       </c>
       <c r="H9" s="45">
         <f t="shared" si="1"/>
-        <v>-1.6</v>
+        <v>1.2</v>
       </c>
       <c r="I9" s="47">
         <f t="shared" si="2"/>
-        <v>2.5600000000000005</v>
+        <v>1.44</v>
       </c>
       <c r="J9" s="36">
         <f t="shared" si="0"/>
@@ -1445,28 +1493,28 @@
       </c>
       <c r="K9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>42.171586751387423</v>
-      </c>
-      <c r="N9" s="78" t="s">
+        <v>35.743619450351474</v>
+      </c>
+      <c r="N9" s="77" t="s">
         <v>33</v>
       </c>
       <c r="O9" s="29">
         <f ca="1"/>
-        <v>1.2122875806216931</v>
+        <v>0.21083314191906055</v>
       </c>
       <c r="P9" s="30">
         <f ca="1">SQRT(Q25*O$15)</f>
-        <v>1.0833467248023656</v>
+        <v>0.65185065123122921</v>
       </c>
       <c r="Q9" s="31">
         <f>SQRT(Q25)</f>
-        <v>0.28782981759823889</v>
+        <v>0.4217029461691833</v>
       </c>
       <c r="R9" s="67">
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1501,28 +1549,28 @@
       </c>
       <c r="K10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>32.173255147750083</v>
-      </c>
-      <c r="N10" s="78" t="s">
+        <v>31.922678930936762</v>
+      </c>
+      <c r="N10" s="77" t="s">
         <v>34</v>
       </c>
       <c r="O10" s="29">
         <f ca="1"/>
-        <v>-2.8399197884057799</v>
+        <v>-2.35612833130741</v>
       </c>
       <c r="P10" s="30">
         <f ca="1">SQRT(R26*O$15)</f>
-        <v>1.3000160697628387</v>
+        <v>0.84111855154695125</v>
       </c>
       <c r="Q10" s="31">
         <f>SQRT(R26)</f>
-        <v>0.34539578111788666</v>
+        <v>0.54414637861439041</v>
       </c>
       <c r="R10" s="67">
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1557,29 +1605,29 @@
       </c>
       <c r="K11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>32.317478806641397</v>
+        <v>35.631137732841452</v>
       </c>
       <c r="M11" s="41"/>
-      <c r="N11" s="78" t="s">
+      <c r="N11" s="77" t="s">
         <v>37</v>
       </c>
       <c r="O11" s="29">
         <f ca="1"/>
-        <v>-3.685048776839267E-2</v>
+        <v>-0.39129795258713607</v>
       </c>
       <c r="P11" s="30">
         <f ca="1">SQRT(S27*O$15)</f>
-        <v>1.6849876771587489</v>
+        <v>2.1656972483379819</v>
       </c>
       <c r="Q11" s="31">
         <f>SQRT(S27)</f>
-        <v>0.4476772621990982</v>
+        <v>1.401058522239099</v>
       </c>
       <c r="R11" s="67">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1614,29 +1662,29 @@
       </c>
       <c r="K12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>29.218268790525247</v>
+        <v>35.529139659014945</v>
       </c>
       <c r="M12" s="3"/>
-      <c r="N12" s="78" t="s">
+      <c r="N12" s="77" t="s">
         <v>35</v>
       </c>
       <c r="O12" s="52">
         <f ca="1"/>
-        <v>0.61221605861598483</v>
+        <v>2.1389149196811865</v>
       </c>
       <c r="P12" s="30">
         <f ca="1">SQRT(T28*O$15)</f>
-        <v>1.3023415686481439</v>
+        <v>0.58515825076257633</v>
       </c>
       <c r="Q12" s="31">
         <f>SQRT(T28)</f>
-        <v>0.34601363309884353</v>
+        <v>0.37855750831220786</v>
       </c>
       <c r="R12" s="67">
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1671,33 +1719,33 @@
       </c>
       <c r="K13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.577967060649083</v>
-      </c>
-      <c r="N13" s="78" t="s">
+        <v>28.275225843037976</v>
+      </c>
+      <c r="N13" s="77" t="s">
         <v>36</v>
       </c>
       <c r="O13" s="53">
         <f ca="1"/>
-        <v>2.0402367215211212</v>
+        <v>1.6244241905984609</v>
       </c>
       <c r="P13" s="32">
         <f ca="1">SQRT(U29*O$15)</f>
-        <v>1.5710840641341624</v>
+        <v>1.3860040138724368</v>
       </c>
       <c r="Q13" s="33">
         <f>SQRT(U29)</f>
-        <v>0.41741469213721144</v>
+        <v>0.89665013749443723</v>
       </c>
       <c r="R13" s="28">
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="23">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C14" s="24">
         <v>230</v>
@@ -1707,7 +1755,7 @@
       </c>
       <c r="F14" s="45">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G14" s="45">
         <f t="shared" si="5"/>
@@ -1715,11 +1763,11 @@
       </c>
       <c r="H14" s="45">
         <f>F14*G14</f>
-        <v>0</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="I14" s="47">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="J14" s="36">
         <f t="shared" si="6"/>
@@ -1727,15 +1775,15 @@
       </c>
       <c r="K14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>32.231845430633498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>30.128952188711882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="23">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C15" s="24">
         <v>170</v>
@@ -1745,7 +1793,7 @@
       </c>
       <c r="F15" s="46">
         <f>(B15-50)/5</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G15" s="46">
         <f>(C15-200)/20</f>
@@ -1753,11 +1801,11 @@
       </c>
       <c r="H15" s="46">
         <f>F15*G15</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I15" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="19">
         <f t="shared" si="6"/>
@@ -1765,17 +1813,17 @@
       </c>
       <c r="K15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>36.437950802586045</v>
+        <v>39.323695139303496</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O15" s="20">
         <f ca="1">SUMXMY2(K6:K12,R31:R37)/(8-6)</f>
-        <v>14.16652669905474</v>
-      </c>
-    </row>
-    <row r="17" spans="4:21">
+        <v>2.3893674175046611</v>
+      </c>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.2">
       <c r="G17" s="70" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:21">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.2">
       <c r="G18" s="72"/>
       <c r="H18" s="9">
         <v>0</v>
@@ -1820,10 +1868,10 @@
         <v>-1</v>
       </c>
       <c r="J18" s="10">
-        <v>-1.6</v>
+        <v>0.4</v>
       </c>
       <c r="K18" s="10">
-        <v>1.6</v>
+        <v>-1.2</v>
       </c>
       <c r="L18" s="10">
         <v>1</v>
@@ -1838,15 +1886,15 @@
         <v>0</v>
       </c>
       <c r="P18" s="73">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Q18" s="74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S18" s="47"/>
       <c r="T18" s="47"/>
     </row>
-    <row r="19" spans="4:21">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.2">
       <c r="G19" s="72"/>
       <c r="H19" s="9">
         <v>0</v>
@@ -1878,10 +1926,10 @@
       <c r="Q19" s="74">
         <v>-1.5</v>
       </c>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-    </row>
-    <row r="20" spans="4:21">
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.2">
       <c r="G20" s="72"/>
       <c r="H20" s="9">
         <v>0</v>
@@ -1890,10 +1938,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="10">
-        <v>-1.6</v>
+        <v>0.4</v>
       </c>
       <c r="K20" s="10">
-        <v>-1.6</v>
+        <v>1.2</v>
       </c>
       <c r="L20" s="10">
         <v>1</v>
@@ -1908,15 +1956,15 @@
         <v>0</v>
       </c>
       <c r="P20" s="73">
-        <v>0</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="Q20" s="74">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S20" s="73"/>
       <c r="T20" s="73"/>
     </row>
-    <row r="21" spans="4:21">
+    <row r="21" spans="4:21" x14ac:dyDescent="0.2">
       <c r="G21" s="72"/>
       <c r="H21" s="9">
         <v>0</v>
@@ -1925,10 +1973,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="10">
-        <v>2.5600000000000005</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="K21" s="10">
-        <v>2.5600000000000005</v>
+        <v>1.44</v>
       </c>
       <c r="L21" s="10">
         <v>1</v>
@@ -1943,15 +1991,15 @@
         <v>0</v>
       </c>
       <c r="P21" s="73">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="Q21" s="74">
-        <v>0</v>
-      </c>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80"/>
-    </row>
-    <row r="22" spans="4:21">
+        <v>1</v>
+      </c>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.2">
       <c r="G22" s="72"/>
       <c r="H22" s="11">
         <v>0</v>
@@ -1986,7 +2034,7 @@
       <c r="S22" s="47"/>
       <c r="T22" s="47"/>
     </row>
-    <row r="23" spans="4:21">
+    <row r="23" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D23" s="5"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1996,7 +2044,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="4:21">
+    <row r="24" spans="4:21" x14ac:dyDescent="0.2">
       <c r="G24" s="21" t="s">
         <v>1</v>
       </c>
@@ -2005,16 +2053,16 @@
         <v>10</v>
       </c>
       <c r="I24" s="8">
-        <v>0</v>
+        <v>-1.1999999999999997</v>
       </c>
       <c r="J24" s="8">
         <v>0</v>
       </c>
       <c r="K24" s="8">
-        <v>-1.2000000000000002</v>
+        <v>6</v>
       </c>
       <c r="L24" s="71">
-        <v>12.240000000000002</v>
+        <v>10.08</v>
       </c>
       <c r="M24" s="69">
         <v>8.5</v>
@@ -2024,238 +2072,238 @@
       </c>
       <c r="P24" s="54">
         <f t="array" ref="P24:U29">MINVERSE(H24:M29)</f>
-        <v>0.49784632606164636</v>
+        <v>0.43864555342152417</v>
       </c>
       <c r="Q24" s="55">
-        <v>0</v>
+        <v>1.3060008020263277E-2</v>
       </c>
       <c r="R24" s="55">
-        <v>0</v>
+        <v>-8.7954376453865946E-2</v>
       </c>
       <c r="S24" s="55">
-        <v>-0.11489245138558962</v>
+        <v>-0.16742326070654379</v>
       </c>
       <c r="T24" s="60">
-        <v>-0.18689971117830673</v>
+        <v>-0.17171098595319484</v>
       </c>
       <c r="U24" s="61">
-        <v>-0.21513902793608192</v>
-      </c>
-    </row>
-    <row r="25" spans="4:21">
+        <v>-7.4752614346289242E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:21" x14ac:dyDescent="0.2">
       <c r="G25" s="5"/>
       <c r="H25" s="9">
-        <v>0</v>
+        <v>-1.1999999999999997</v>
       </c>
       <c r="I25" s="10">
-        <v>12.240000000000002</v>
+        <v>10.08</v>
       </c>
       <c r="J25" s="10">
-        <v>-1.2000000000000002</v>
+        <v>6</v>
       </c>
       <c r="K25" s="10">
-        <v>0</v>
+        <v>-2.2399999999999998</v>
       </c>
       <c r="L25" s="73">
-        <v>0</v>
+        <v>-2.4479999999999995</v>
       </c>
       <c r="M25" s="74">
-        <v>0</v>
+        <v>-1.7</v>
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="56">
-        <v>0</v>
+        <v>1.3060008020263279E-2</v>
       </c>
       <c r="Q25" s="57">
-        <v>8.2846003898635473E-2</v>
+        <v>0.17783337480776909</v>
       </c>
       <c r="R25" s="57">
-        <v>1.1695906432748537E-2</v>
+        <v>-0.13058550105196456</v>
       </c>
       <c r="S25" s="57">
-        <v>0</v>
+        <v>-2.0917523346346781E-2</v>
       </c>
       <c r="T25" s="62">
-        <v>0</v>
+        <v>-3.3110358956672812E-3</v>
       </c>
       <c r="U25" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="4:21">
+        <v>2.8432982526246705E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:21" x14ac:dyDescent="0.2">
       <c r="G26" s="5"/>
       <c r="H26" s="9">
         <v>0</v>
       </c>
       <c r="I26" s="10">
-        <v>-1.2000000000000002</v>
+        <v>6</v>
       </c>
       <c r="J26" s="10">
         <v>8.5</v>
       </c>
       <c r="K26" s="10">
-        <v>0</v>
+        <v>-1.7</v>
       </c>
       <c r="L26" s="73">
-        <v>0</v>
+        <v>-2.2399999999999998</v>
       </c>
       <c r="M26" s="74">
         <v>0</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="56">
-        <v>0</v>
+        <v>-8.7954376453865946E-2</v>
       </c>
       <c r="Q26" s="57">
-        <v>1.1695906432748537E-2</v>
+        <v>-0.13058550105196456</v>
       </c>
       <c r="R26" s="57">
-        <v>0.11929824561403508</v>
+        <v>0.29609528135915547</v>
       </c>
       <c r="S26" s="57">
-        <v>0</v>
+        <v>0.39293424301066532</v>
       </c>
       <c r="T26" s="62">
-        <v>0</v>
+        <v>2.9155657197724724E-2</v>
       </c>
       <c r="U26" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="4:21">
+        <v>-0.22690039051067704</v>
+      </c>
+    </row>
+    <row r="27" spans="4:21" x14ac:dyDescent="0.2">
       <c r="G27" s="5"/>
       <c r="H27" s="9">
-        <v>-1.2000000000000002</v>
+        <v>6</v>
       </c>
       <c r="I27" s="10">
-        <v>0</v>
+        <v>-2.2399999999999998</v>
       </c>
       <c r="J27" s="10">
-        <v>0</v>
+        <v>-1.7</v>
       </c>
       <c r="K27" s="10">
-        <v>7.120000000000001</v>
+        <v>6.66</v>
       </c>
       <c r="L27" s="73">
-        <v>-6.1920000000000019</v>
+        <v>5.6159999999999997</v>
       </c>
       <c r="M27" s="74">
-        <v>-1.2000000000000002</v>
+        <v>9</v>
       </c>
       <c r="O27" s="17"/>
       <c r="P27" s="56">
-        <v>-0.11489245138558965</v>
+        <v>-0.1674232607065437</v>
       </c>
       <c r="Q27" s="57">
-        <v>0</v>
+        <v>-2.0917523346346775E-2</v>
       </c>
       <c r="R27" s="57">
-        <v>0</v>
+        <v>0.39293424301066515</v>
       </c>
       <c r="S27" s="57">
-        <v>0.20041493109008013</v>
+        <v>1.9629649827388076</v>
       </c>
       <c r="T27" s="62">
-        <v>8.2587700724959731E-2</v>
+        <v>-5.4734171939017369E-2</v>
       </c>
       <c r="U27" s="63">
-        <v>4.4535173445939442E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="4:21">
+        <v>-1.1266985722632623</v>
+      </c>
+    </row>
+    <row r="28" spans="4:21" x14ac:dyDescent="0.2">
       <c r="G28" s="37"/>
       <c r="H28" s="9">
-        <v>12.240000000000002</v>
+        <v>10.08</v>
       </c>
       <c r="I28" s="10">
-        <v>0</v>
+        <v>-2.4479999999999995</v>
       </c>
       <c r="J28" s="10">
-        <v>0</v>
+        <v>-2.2399999999999998</v>
       </c>
       <c r="K28" s="10">
-        <v>-6.1920000000000019</v>
+        <v>5.6159999999999997</v>
       </c>
       <c r="L28" s="73">
-        <v>28.214400000000012</v>
+        <v>18.336000000000006</v>
       </c>
       <c r="M28" s="74">
-        <v>7.120000000000001</v>
+        <v>6.66</v>
       </c>
       <c r="O28" s="34"/>
       <c r="P28" s="56">
-        <v>-0.18689971117830675</v>
+        <v>-0.17171098595319489</v>
       </c>
       <c r="Q28" s="57">
-        <v>0</v>
+        <v>-3.311035895667282E-3</v>
       </c>
       <c r="R28" s="62">
-        <v>0</v>
+        <v>2.9155657197724744E-2</v>
       </c>
       <c r="S28" s="57">
-        <v>8.2587700724959731E-2</v>
+        <v>-5.4734171939017237E-2</v>
       </c>
       <c r="T28" s="62">
-        <v>0.11972543429026113</v>
+        <v>0.1433057870995473</v>
       </c>
       <c r="U28" s="63">
-        <v>5.9136827875320326E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="4:21">
+        <v>7.0237566367978205E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:21" x14ac:dyDescent="0.2">
       <c r="G29" s="37"/>
       <c r="H29" s="11">
         <v>8.5</v>
       </c>
       <c r="I29" s="12">
-        <v>0</v>
+        <v>-1.7</v>
       </c>
       <c r="J29" s="12">
         <v>0</v>
       </c>
       <c r="K29" s="12">
-        <v>-1.2000000000000002</v>
+        <v>9</v>
       </c>
       <c r="L29" s="75">
-        <v>7.120000000000001</v>
+        <v>6.66</v>
       </c>
       <c r="M29" s="76">
         <v>14.125</v>
       </c>
       <c r="O29" s="34"/>
       <c r="P29" s="58">
-        <v>-0.21513902793608189</v>
+        <v>-7.4752614346289326E-2</v>
       </c>
       <c r="Q29" s="59">
-        <v>0</v>
+        <v>2.8432982526246701E-2</v>
       </c>
       <c r="R29" s="64">
-        <v>0</v>
+        <v>-0.22690039051067698</v>
       </c>
       <c r="S29" s="59">
-        <v>4.4535173445939422E-2</v>
+        <v>-1.1266985722632623</v>
       </c>
       <c r="T29" s="64">
-        <v>5.9136827875320298E-2</v>
+        <v>7.0237566367978302E-2</v>
       </c>
       <c r="U29" s="65">
-        <v>0.17423502521200301</v>
-      </c>
-    </row>
-    <row r="30" spans="4:21">
+        <v>0.8039814690687932</v>
+      </c>
+    </row>
+    <row r="30" spans="4:21" x14ac:dyDescent="0.2">
       <c r="Q30" s="66"/>
       <c r="R30" s="66"/>
     </row>
-    <row r="31" spans="4:21">
+    <row r="31" spans="4:21" x14ac:dyDescent="0.2">
       <c r="Q31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="R31">
         <f t="array" aca="1" ref="R31:R40" ca="1">MMULT(E6:J15,O8:O13)</f>
-        <v>31.082863473890878</v>
-      </c>
-    </row>
-    <row r="32" spans="4:21">
+        <v>30.055381042556363</v>
+      </c>
+    </row>
+    <row r="32" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D32" s="5"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2268,249 +2316,249 @@
       <c r="Q32" s="6"/>
       <c r="R32">
         <f ca="1"/>
-        <v>35.326097974043677</v>
-      </c>
-    </row>
-    <row r="33" spans="4:18">
+        <v>35.572717389637219</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D33" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="13">
         <f t="array" ref="E33:N38">MMULT(P24:U29,H17:Q22)</f>
-        <v>0.49784632606164636</v>
+        <v>0.43864555342152417</v>
       </c>
       <c r="F33" s="14">
-        <v>-1.9084864438331905E-2</v>
+        <v>9.9653060849099001E-2</v>
       </c>
       <c r="G33" s="14">
-        <v>-1.1928040273957441E-2</v>
+        <v>0.18671950379434563</v>
       </c>
       <c r="H33" s="14">
-        <v>-1.1928040273957441E-2</v>
+        <v>-1.1996426715668196E-2</v>
       </c>
       <c r="I33" s="14">
-        <v>-1.9084864438331905E-2</v>
+        <v>-5.013567601810634E-2</v>
       </c>
       <c r="J33" s="14">
-        <v>1.9383065445181036E-2</v>
+        <v>1.9961442213766556E-2</v>
       </c>
       <c r="K33" s="14">
-        <v>1.9383065445181036E-2</v>
+        <v>-2.1830583451075969E-2</v>
       </c>
       <c r="L33" s="40">
-        <v>0.49784632606164636</v>
+        <v>0.43864555342152417</v>
       </c>
       <c r="M33" s="40">
-        <v>1.3783513205462061E-2</v>
+        <v>-6.614027830530711E-2</v>
       </c>
       <c r="N33" s="35">
-        <v>1.3783513205462061E-2</v>
+        <v>-3.3522149210101576E-2</v>
       </c>
       <c r="Q33" s="6"/>
       <c r="R33">
         <f ca="1"/>
-        <v>29.969754168497857</v>
-      </c>
-    </row>
-    <row r="34" spans="4:18">
+        <v>29.593717364729173</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D34" s="4"/>
       <c r="E34" s="15">
-        <v>0</v>
+        <v>1.3060008020263279E-2</v>
       </c>
       <c r="F34" s="16">
-        <v>-9.454191033138401E-2</v>
+        <v>-2.9983442451308604E-2</v>
       </c>
       <c r="G34" s="16">
-        <v>-0.12085769980506822</v>
+        <v>-2.6855935664192417E-2</v>
       </c>
       <c r="H34" s="16">
-        <v>0.12085769980506822</v>
+        <v>-7.1190477876225372E-2</v>
       </c>
       <c r="I34" s="16">
-        <v>9.454191033138401E-2</v>
+        <v>6.4512305060300451E-2</v>
       </c>
       <c r="J34" s="16">
-        <v>0.13255360623781676</v>
+        <v>0.28911715581978564</v>
       </c>
       <c r="K34" s="16">
-        <v>-0.13255360623781676</v>
+        <v>-0.27994964356507551</v>
       </c>
       <c r="L34" s="47">
-        <v>0</v>
+        <v>1.3060008020263279E-2</v>
       </c>
       <c r="M34" s="47">
-        <v>1.7543859649122806E-2</v>
+        <v>-3.2161751923119389E-2</v>
       </c>
       <c r="N34" s="36">
-        <v>-1.7543859649122806E-2</v>
+        <v>6.0391774559308671E-2</v>
       </c>
       <c r="Q34" s="6"/>
       <c r="R34">
         <f ca="1"/>
-        <v>39.528914003298837</v>
-      </c>
-    </row>
-    <row r="35" spans="4:18">
+        <v>36.393413735395704</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D35" s="4"/>
       <c r="E35" s="15">
-        <v>0</v>
+        <v>-8.7954376453865946E-2</v>
       </c>
       <c r="F35" s="16">
-        <v>-0.13099415204678361</v>
+        <v>-5.8274647063343815E-2</v>
       </c>
       <c r="G35" s="16">
-        <v>0.10058479532163742</v>
+        <v>9.084491632972877E-2</v>
       </c>
       <c r="H35" s="16">
-        <v>-0.10058479532163742</v>
+        <v>5.9257790916180969E-2</v>
       </c>
       <c r="I35" s="16">
-        <v>0.13099415204678361</v>
+        <v>0.27274491355103803</v>
       </c>
       <c r="J35" s="16">
-        <v>1.8713450292397661E-2</v>
+        <v>-0.22225269571083395</v>
       </c>
       <c r="K35" s="16">
-        <v>-1.8713450292397661E-2</v>
+        <v>0.1956209076554527</v>
       </c>
       <c r="L35" s="47">
-        <v>0</v>
+        <v>-8.7954376453865946E-2</v>
       </c>
       <c r="M35" s="47">
-        <v>0.17894736842105263</v>
+        <v>0.13144822160544489</v>
       </c>
       <c r="N35" s="36">
-        <v>-0.17894736842105263</v>
+        <v>-0.29348065437593518</v>
       </c>
       <c r="Q35" s="6"/>
       <c r="R35">
         <f ca="1"/>
-        <v>32.070833558475506</v>
-      </c>
-    </row>
-    <row r="36" spans="4:18">
+        <v>31.282127010860524</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D36" s="4"/>
       <c r="E36" s="15">
-        <v>-0.11489245138558965</v>
+        <v>-0.1674232607065437</v>
       </c>
       <c r="F36" s="16">
-        <v>0.21264535387538963</v>
+        <v>0.24209225816566593</v>
       </c>
       <c r="G36" s="16">
-        <v>-0.17959665382788148</v>
+        <v>-0.13312607371239926</v>
       </c>
       <c r="H36" s="16">
-        <v>-0.17959665382788148</v>
+        <v>0.61478572372952889</v>
       </c>
       <c r="I36" s="16">
-        <v>0.21264535387538963</v>
+        <v>0.98612569749430223</v>
       </c>
       <c r="J36" s="16">
-        <v>9.6532062470307295E-2</v>
+        <v>-0.34101077822458303</v>
       </c>
       <c r="K36" s="16">
-        <v>9.6532062470307295E-2</v>
+        <v>-0.27407470351627333</v>
       </c>
       <c r="L36" s="47">
-        <v>-0.11489245138558965</v>
+        <v>-0.1674232607065437</v>
       </c>
       <c r="M36" s="47">
-        <v>-1.4688311132225906E-2</v>
+        <v>-0.37868001522381345</v>
       </c>
       <c r="N36" s="36">
-        <v>-1.4688311132225906E-2</v>
+        <v>-0.38126558729934068</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36">
         <f ca="1"/>
-        <v>34.589796712942508</v>
-      </c>
-    </row>
-    <row r="37" spans="4:18">
+        <v>35.868336264010694</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E37" s="48">
-        <v>-0.18689971117830675</v>
+        <v>-0.17171098595319489</v>
       </c>
       <c r="F37" s="47">
-        <v>7.4550251712234422E-2</v>
+        <v>-3.8746425726744083E-2</v>
       </c>
       <c r="G37" s="47">
-        <v>4.6593907320146573E-2</v>
+        <v>-7.2606919585438162E-2</v>
       </c>
       <c r="H37" s="47">
-        <v>4.6593907320146573E-2</v>
+        <v>1.402349338838671E-2</v>
       </c>
       <c r="I37" s="47">
-        <v>7.4550251712234422E-2</v>
+        <v>1.2942816877370866E-2</v>
       </c>
       <c r="J37" s="47">
-        <v>0.11959740060476179</v>
+        <v>0.18985417158857865</v>
       </c>
       <c r="K37" s="47">
-        <v>0.11959740060476179</v>
+        <v>0.20044948645471394</v>
       </c>
       <c r="L37" s="47">
-        <v>-0.18689971117830675</v>
+        <v>-0.17171098595319489</v>
       </c>
       <c r="M37" s="47">
-        <v>-5.3841848458836022E-2</v>
+        <v>3.039973124466433E-2</v>
       </c>
       <c r="N37" s="36">
-        <v>-5.3841848458836022E-2</v>
+        <v>7.1056176648577052E-3</v>
       </c>
       <c r="Q37" s="6"/>
       <c r="R37">
         <f ca="1"/>
-        <v>30.710476454953088</v>
-      </c>
-    </row>
-    <row r="38" spans="4:18">
+        <v>35.193670209869708</v>
+      </c>
+    </row>
+    <row r="38" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D38" s="4"/>
       <c r="E38" s="38">
-        <v>-0.21513902793608189</v>
+        <v>-7.4752614346289326E-2</v>
       </c>
       <c r="F38" s="39">
-        <v>6.2767998597180824E-2</v>
+        <v>-0.12876474318834996</v>
       </c>
       <c r="G38" s="39">
-        <v>3.9229999123238046E-2</v>
+        <v>7.4260238935897172E-2</v>
       </c>
       <c r="H38" s="39">
-        <v>3.9229999123238046E-2</v>
+        <v>-0.32888652494434112</v>
       </c>
       <c r="I38" s="39">
-        <v>6.2767998597180824E-2</v>
+        <v>-0.52569955915721045</v>
       </c>
       <c r="J38" s="39">
-        <v>-6.3748748575261888E-2</v>
+        <v>0.1505483275977299</v>
       </c>
       <c r="K38" s="39">
-        <v>-6.3748748575261888E-2</v>
+        <v>5.9562783513740447E-2</v>
       </c>
       <c r="L38" s="18">
-        <v>-0.21513902793608189</v>
+        <v>-7.4752614346289326E-2</v>
       </c>
       <c r="M38" s="18">
-        <v>0.17688977879092491</v>
+        <v>0.42217170366376422</v>
       </c>
       <c r="N38" s="19">
-        <v>0.17688977879092491</v>
+        <v>0.42631300227134905</v>
       </c>
       <c r="R38">
         <f ca="1"/>
-        <v>31.082863473890878</v>
-      </c>
-    </row>
-    <row r="39" spans="4:18">
+        <v>30.055381042556363</v>
+      </c>
+    </row>
+    <row r="39" spans="4:18" x14ac:dyDescent="0.2">
       <c r="R39">
         <f ca="1"/>
-        <v>31.413516414704731</v>
-      </c>
-    </row>
-    <row r="40" spans="4:18">
+        <v>30.720484073350026</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18" x14ac:dyDescent="0.2">
       <c r="N40" s="6"/>
       <c r="R40">
         <f ca="1"/>
-        <v>39.933275779922077</v>
+        <v>38.585662817245435</v>
       </c>
     </row>
   </sheetData>
